--- a/Code/Results/Cases/Case_1_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9609539015921243</v>
+        <v>1.018677635229236</v>
       </c>
       <c r="D2">
-        <v>1.046255315378011</v>
+        <v>1.054350528882185</v>
       </c>
       <c r="E2">
-        <v>0.9726142361204823</v>
+        <v>1.019891571743906</v>
       </c>
       <c r="F2">
-        <v>1.033854876342034</v>
+        <v>1.056441662908779</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060802499632999</v>
+        <v>1.04368904623742</v>
       </c>
       <c r="J2">
-        <v>0.9843686734586091</v>
+        <v>1.023884710911551</v>
       </c>
       <c r="K2">
-        <v>1.05710576609144</v>
+        <v>1.057093980672994</v>
       </c>
       <c r="L2">
-        <v>0.9844687587631381</v>
+        <v>1.022733475487947</v>
       </c>
       <c r="M2">
-        <v>1.044861877870788</v>
+        <v>1.059179364208686</v>
       </c>
       <c r="N2">
-        <v>0.9984659088965795</v>
+        <v>1.011967439458822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9688342901185862</v>
+        <v>1.020208398964408</v>
       </c>
       <c r="D3">
-        <v>1.050945206010715</v>
+        <v>1.055181212700848</v>
       </c>
       <c r="E3">
-        <v>0.9790979472065754</v>
+        <v>1.02120501077031</v>
       </c>
       <c r="F3">
-        <v>1.039838133686807</v>
+        <v>1.057546213006259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062871735439481</v>
+        <v>1.043942093781302</v>
       </c>
       <c r="J3">
-        <v>0.990212190126699</v>
+        <v>1.025048857346466</v>
       </c>
       <c r="K3">
-        <v>1.060965229573336</v>
+        <v>1.057737845677014</v>
       </c>
       <c r="L3">
-        <v>0.9900054491546332</v>
+        <v>1.023851643664048</v>
       </c>
       <c r="M3">
-        <v>1.049985442303859</v>
+        <v>1.060096813535946</v>
       </c>
       <c r="N3">
-        <v>1.000455115864613</v>
+        <v>1.012358264058563</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9737647561860594</v>
+        <v>1.021196670310999</v>
       </c>
       <c r="D4">
-        <v>1.053875175361988</v>
+        <v>1.055715125493566</v>
       </c>
       <c r="E4">
-        <v>0.9831628538661934</v>
+        <v>1.022053318904646</v>
       </c>
       <c r="F4">
-        <v>1.043576538427008</v>
+        <v>1.05825676394047</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064146384905589</v>
+        <v>1.044102402216575</v>
       </c>
       <c r="J4">
-        <v>0.9938642334478505</v>
+        <v>1.025799604177475</v>
       </c>
       <c r="K4">
-        <v>1.063364111298947</v>
+        <v>1.058150234197895</v>
       </c>
       <c r="L4">
-        <v>0.9934688278153735</v>
+        <v>1.024573072636481</v>
       </c>
       <c r="M4">
-        <v>1.053176010789494</v>
+        <v>1.060685716629813</v>
       </c>
       <c r="N4">
-        <v>1.001697603287003</v>
+        <v>1.012610124411189</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9757995997929031</v>
+        <v>1.021611613527143</v>
       </c>
       <c r="D5">
-        <v>1.05508295529418</v>
+        <v>1.055938723062466</v>
       </c>
       <c r="E5">
-        <v>0.984842339219411</v>
+        <v>1.022409577277587</v>
       </c>
       <c r="F5">
-        <v>1.045117788670287</v>
+        <v>1.058554485113095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064667426884881</v>
+        <v>1.044168975126693</v>
       </c>
       <c r="J5">
-        <v>0.9953704041766962</v>
+        <v>1.026114618021545</v>
       </c>
       <c r="K5">
-        <v>1.064350010552888</v>
+        <v>1.058322589645549</v>
       </c>
       <c r="L5">
-        <v>0.9948979222348031</v>
+        <v>1.024875864519336</v>
       </c>
       <c r="M5">
-        <v>1.054488817067872</v>
+        <v>1.060932157466119</v>
       </c>
       <c r="N5">
-        <v>1.002209841324708</v>
+        <v>1.012715762238394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9761391022293329</v>
+        <v>1.021681253731393</v>
       </c>
       <c r="D6">
-        <v>1.055284370576155</v>
+        <v>1.055976215720745</v>
       </c>
       <c r="E6">
-        <v>0.9851226583986751</v>
+        <v>1.022469373098571</v>
       </c>
       <c r="F6">
-        <v>1.045374831448011</v>
+        <v>1.058604415581268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064754058647496</v>
+        <v>1.044180104893613</v>
       </c>
       <c r="J6">
-        <v>0.9956216357308955</v>
+        <v>1.026167475226575</v>
       </c>
       <c r="K6">
-        <v>1.064514249500446</v>
+        <v>1.058351469532761</v>
       </c>
       <c r="L6">
-        <v>0.9951363401806494</v>
+        <v>1.024926675646599</v>
       </c>
       <c r="M6">
-        <v>1.054707608270609</v>
+        <v>1.060973469541542</v>
       </c>
       <c r="N6">
-        <v>1.002295271970866</v>
+        <v>1.012733485032532</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.973792091806635</v>
+        <v>1.021202216858586</v>
       </c>
       <c r="D7">
-        <v>1.053891406629126</v>
+        <v>1.055718116590602</v>
       </c>
       <c r="E7">
-        <v>0.9831854084543021</v>
+        <v>1.022058080693682</v>
       </c>
       <c r="F7">
-        <v>1.043597250149176</v>
+        <v>1.058260746009314</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064153404612869</v>
+        <v>1.044103294991682</v>
       </c>
       <c r="J7">
-        <v>0.9938844713024669</v>
+        <v>1.025803815758126</v>
       </c>
       <c r="K7">
-        <v>1.063377372467588</v>
+        <v>1.058152541197755</v>
       </c>
       <c r="L7">
-        <v>0.9934880271339623</v>
+        <v>1.024577120501429</v>
       </c>
       <c r="M7">
-        <v>1.053193662894117</v>
+        <v>1.060689014037341</v>
       </c>
       <c r="N7">
-        <v>1.001704486799111</v>
+        <v>1.012611536906191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9636535951652945</v>
+        <v>1.019195432275664</v>
       </c>
       <c r="D8">
-        <v>1.047862650599078</v>
+        <v>1.054632007604759</v>
       </c>
       <c r="E8">
-        <v>0.9748336168346521</v>
+        <v>1.020335784688701</v>
       </c>
       <c r="F8">
-        <v>1.035905467425096</v>
+        <v>1.056815815469327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061515477298277</v>
+        <v>1.043775275385672</v>
       </c>
       <c r="J8">
-        <v>0.9863713615493392</v>
+        <v>1.024278668197809</v>
       </c>
       <c r="K8">
-        <v>1.058431091589124</v>
+        <v>1.057312455560118</v>
       </c>
       <c r="L8">
-        <v>0.9863656299328271</v>
+        <v>1.02311180425784</v>
       </c>
       <c r="M8">
-        <v>1.04662008645328</v>
+        <v>1.059490405237387</v>
       </c>
       <c r="N8">
-        <v>0.9991477905849483</v>
+        <v>1.012099734887991</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9443721397670038</v>
+        <v>1.015641693769673</v>
       </c>
       <c r="D9">
-        <v>1.036382929385394</v>
+        <v>1.052690544564786</v>
       </c>
       <c r="E9">
-        <v>0.9590246012853181</v>
+        <v>1.017288517935886</v>
       </c>
       <c r="F9">
-        <v>1.02125626753401</v>
+        <v>1.054237603721856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056346212046989</v>
+        <v>1.04317096752418</v>
       </c>
       <c r="J9">
-        <v>0.9720546759502062</v>
+        <v>1.021571464362425</v>
       </c>
       <c r="K9">
-        <v>1.048912063919273</v>
+        <v>1.055799619961755</v>
       </c>
       <c r="L9">
-        <v>0.9728194053009749</v>
+        <v>1.020513368018558</v>
       </c>
       <c r="M9">
-        <v>1.034013639715689</v>
+        <v>1.057341813743756</v>
       </c>
       <c r="N9">
-        <v>0.9942707931154307</v>
+        <v>1.011189893571253</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9303657815867001</v>
+        <v>1.013260172105644</v>
       </c>
       <c r="D10">
-        <v>1.028067956438638</v>
+        <v>1.051377576428709</v>
       </c>
       <c r="E10">
-        <v>0.9476024542136791</v>
+        <v>1.015248270099376</v>
       </c>
       <c r="F10">
-        <v>1.010633914851684</v>
+        <v>1.052497023205555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052504458733599</v>
+        <v>1.042750376236787</v>
       </c>
       <c r="J10">
-        <v>0.961643142157149</v>
+        <v>1.019753000881598</v>
       </c>
       <c r="K10">
-        <v>1.041948276641256</v>
+        <v>1.054769117685309</v>
       </c>
       <c r="L10">
-        <v>0.962986910765808</v>
+        <v>1.018769688371083</v>
       </c>
       <c r="M10">
-        <v>1.024813788855456</v>
+        <v>1.055884697129749</v>
       </c>
       <c r="N10">
-        <v>0.9907218772348434</v>
+        <v>1.010577828407062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9239735448662153</v>
+        <v>1.012225884343118</v>
       </c>
       <c r="D11">
-        <v>1.024287739555575</v>
+        <v>1.050804594875981</v>
       </c>
       <c r="E11">
-        <v>0.9424071824169854</v>
+        <v>1.014362651712469</v>
       </c>
       <c r="F11">
-        <v>1.005799420627601</v>
+        <v>1.051738116279871</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050735083187375</v>
+        <v>1.042564041977656</v>
       </c>
       <c r="J11">
-        <v>0.956890764596936</v>
+        <v>1.018962251493866</v>
       </c>
       <c r="K11">
-        <v>1.03876571326286</v>
+        <v>1.054317669259246</v>
       </c>
       <c r="L11">
-        <v>0.9585035704333212</v>
+        <v>1.018011866647532</v>
       </c>
       <c r="M11">
-        <v>1.020612790876455</v>
+        <v>1.055247840066288</v>
       </c>
       <c r="N11">
-        <v>0.989101754259287</v>
+        <v>1.010311460493468</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9215445066330753</v>
+        <v>1.01184123072662</v>
       </c>
       <c r="D12">
-        <v>1.022854324432152</v>
+        <v>1.05059109175183</v>
       </c>
       <c r="E12">
-        <v>0.9404359171610849</v>
+        <v>1.014033358008769</v>
       </c>
       <c r="F12">
-        <v>1.003965199313993</v>
+        <v>1.051455434767651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050060753239658</v>
+        <v>1.042494194692604</v>
       </c>
       <c r="J12">
-        <v>0.9550849580572045</v>
+        <v>1.018668021460643</v>
       </c>
       <c r="K12">
-        <v>1.037556390203055</v>
+        <v>1.054149192441886</v>
       </c>
       <c r="L12">
-        <v>0.9568007318146178</v>
+        <v>1.01772994999279</v>
       </c>
       <c r="M12">
-        <v>1.019016824615505</v>
+        <v>1.055010389914801</v>
       </c>
       <c r="N12">
-        <v>0.9884861395414354</v>
+        <v>1.010212315558985</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.922068115527345</v>
+        <v>1.011923761825652</v>
       </c>
       <c r="D13">
-        <v>1.023163161394355</v>
+        <v>1.050636919360129</v>
       </c>
       <c r="E13">
-        <v>0.9408607103748046</v>
+        <v>1.014104007949475</v>
       </c>
       <c r="F13">
-        <v>1.004360443088083</v>
+        <v>1.05151610672585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050206194455372</v>
+        <v>1.042509205900958</v>
       </c>
       <c r="J13">
-        <v>0.9554742142344017</v>
+        <v>1.018731158037372</v>
       </c>
       <c r="K13">
-        <v>1.037817060170974</v>
+        <v>1.054185367024376</v>
       </c>
       <c r="L13">
-        <v>0.9571677585848682</v>
+        <v>1.017790441561742</v>
       </c>
       <c r="M13">
-        <v>1.019360823101066</v>
+        <v>1.055061364262357</v>
       </c>
       <c r="N13">
-        <v>0.9886188397878204</v>
+        <v>1.010233591761593</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9237739100573501</v>
+        <v>1.01219409847243</v>
       </c>
       <c r="D14">
-        <v>1.024169864423496</v>
+        <v>1.050786960370259</v>
       </c>
       <c r="E14">
-        <v>0.9422451093958917</v>
+        <v>1.014335439087629</v>
       </c>
       <c r="F14">
-        <v>1.005648608193694</v>
+        <v>1.051714765875813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05067969934039</v>
+        <v>1.04255828132848</v>
       </c>
       <c r="J14">
-        <v>0.9567423481478754</v>
+        <v>1.018937940810072</v>
       </c>
       <c r="K14">
-        <v>1.038666317588827</v>
+        <v>1.054303759017957</v>
       </c>
       <c r="L14">
-        <v>0.9583636016107953</v>
+        <v>1.017988572103469</v>
       </c>
       <c r="M14">
-        <v>1.020481610630881</v>
+        <v>1.05522823060657</v>
       </c>
       <c r="N14">
-        <v>0.989051157671752</v>
+        <v>1.010303269320552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9248174821588688</v>
+        <v>1.012360598770793</v>
       </c>
       <c r="D15">
-        <v>1.024786175161347</v>
+        <v>1.050879316428965</v>
       </c>
       <c r="E15">
-        <v>0.9430924514275574</v>
+        <v>1.014477986724946</v>
       </c>
       <c r="F15">
-        <v>1.006437088181277</v>
+        <v>1.051837061546009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050969135997011</v>
+        <v>1.042588434214362</v>
       </c>
       <c r="J15">
-        <v>0.9575181859569596</v>
+        <v>1.019065278604144</v>
       </c>
       <c r="K15">
-        <v>1.039185905363591</v>
+        <v>1.054376599639031</v>
       </c>
       <c r="L15">
-        <v>0.9590953101483313</v>
+        <v>1.018110589932473</v>
       </c>
       <c r="M15">
-        <v>1.021167364183547</v>
+        <v>1.05533092399601</v>
       </c>
       <c r="N15">
-        <v>0.989315648350812</v>
+        <v>1.010346172844836</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9307826661413375</v>
+        <v>1.013328748661838</v>
       </c>
       <c r="D16">
-        <v>1.028314862965501</v>
+        <v>1.051415509194248</v>
       </c>
       <c r="E16">
-        <v>0.9479416615832232</v>
+        <v>1.015306999077334</v>
       </c>
       <c r="F16">
-        <v>1.01094955318104</v>
+        <v>1.052547278884577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052619557174485</v>
+        <v>1.04276265371895</v>
       </c>
       <c r="J16">
-        <v>0.9619530802064616</v>
+        <v>1.019805409181646</v>
       </c>
       <c r="K16">
-        <v>1.042155801036682</v>
+        <v>1.054798968350857</v>
       </c>
       <c r="L16">
-        <v>0.9632794027498032</v>
+        <v>1.018819922918669</v>
       </c>
       <c r="M16">
-        <v>1.025087779341671</v>
+        <v>1.055926838231541</v>
       </c>
       <c r="N16">
-        <v>0.9908275357163955</v>
+        <v>1.01059547790821</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9344332002980678</v>
+        <v>1.013935212746376</v>
       </c>
       <c r="D17">
-        <v>1.030478679848366</v>
+        <v>1.051750653538939</v>
       </c>
       <c r="E17">
-        <v>0.9509140043709418</v>
+        <v>1.015826427691681</v>
       </c>
       <c r="F17">
-        <v>1.013715095153644</v>
+        <v>1.052991377459829</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053625682277569</v>
+        <v>1.042870807643546</v>
       </c>
       <c r="J17">
-        <v>0.9646670523892277</v>
+        <v>1.020268772781056</v>
       </c>
       <c r="K17">
-        <v>1.043972609149387</v>
+        <v>1.055062506097057</v>
       </c>
       <c r="L17">
-        <v>0.9658411429736078</v>
+        <v>1.019264114528129</v>
       </c>
       <c r="M17">
-        <v>1.027486847836809</v>
+        <v>1.056299052644987</v>
       </c>
       <c r="N17">
-        <v>0.9917527139147123</v>
+        <v>1.0107514997847</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9365313194017865</v>
+        <v>1.014288657247293</v>
       </c>
       <c r="D18">
-        <v>1.031723619989646</v>
+        <v>1.05194570764312</v>
       </c>
       <c r="E18">
-        <v>0.9526239605082065</v>
+        <v>1.01612919208351</v>
       </c>
       <c r="F18">
-        <v>1.015305756940032</v>
+        <v>1.053249908934067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054202412280958</v>
+        <v>1.042933485347768</v>
       </c>
       <c r="J18">
-        <v>0.9662268046153646</v>
+        <v>1.020538722974653</v>
       </c>
       <c r="K18">
-        <v>1.04501634365365</v>
+        <v>1.05521571835705</v>
       </c>
       <c r="L18">
-        <v>0.9673138460215628</v>
+        <v>1.019522934643296</v>
       </c>
       <c r="M18">
-        <v>1.028865421536301</v>
+        <v>1.056515588509914</v>
       </c>
       <c r="N18">
-        <v>0.9922844032237117</v>
+        <v>1.010842375636863</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9372415890052411</v>
+        <v>1.014409122867677</v>
       </c>
       <c r="D19">
-        <v>1.032145262591696</v>
+        <v>1.052012143204401</v>
       </c>
       <c r="E19">
-        <v>0.9532030939889514</v>
+        <v>1.016232391630266</v>
       </c>
       <c r="F19">
-        <v>1.015844415987899</v>
+        <v>1.053337976190734</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054397378567932</v>
+        <v>1.042954787882771</v>
       </c>
       <c r="J19">
-        <v>0.9667548028011426</v>
+        <v>1.020630714654438</v>
       </c>
       <c r="K19">
-        <v>1.04536957777012</v>
+        <v>1.055267874217567</v>
       </c>
       <c r="L19">
-        <v>0.9678124507625424</v>
+        <v>1.019611140161651</v>
       </c>
       <c r="M19">
-        <v>1.029332038454368</v>
+        <v>1.056589325002972</v>
       </c>
       <c r="N19">
-        <v>0.9924643830599593</v>
+        <v>1.010873340144609</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.934044794145969</v>
+        <v>1.013870175561524</v>
       </c>
       <c r="D20">
-        <v>1.030248314916824</v>
+        <v>1.051714740209708</v>
       </c>
       <c r="E20">
-        <v>0.9505975850912285</v>
+        <v>1.015770719650955</v>
       </c>
       <c r="F20">
-        <v>1.013420720464974</v>
+        <v>1.052943782021644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053518790067264</v>
+        <v>1.042859245820771</v>
       </c>
       <c r="J20">
-        <v>0.9643783011432636</v>
+        <v>1.020219091613278</v>
       </c>
       <c r="K20">
-        <v>1.043779349571057</v>
+        <v>1.055034283227118</v>
       </c>
       <c r="L20">
-        <v>0.9655685423523456</v>
+        <v>1.019216484886617</v>
       </c>
       <c r="M20">
-        <v>1.027231617464845</v>
+        <v>1.056259176601838</v>
       </c>
       <c r="N20">
-        <v>0.9916542822510114</v>
+        <v>1.010734773484078</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9232731538979762</v>
+        <v>1.012114504219626</v>
       </c>
       <c r="D21">
-        <v>1.023874243360915</v>
+        <v>1.050742795611229</v>
       </c>
       <c r="E21">
-        <v>0.9418386198457398</v>
+        <v>1.01426729771834</v>
       </c>
       <c r="F21">
-        <v>1.005270365573511</v>
+        <v>1.051656287546434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050540746618584</v>
+        <v>1.042543847361339</v>
       </c>
       <c r="J21">
-        <v>0.9563700682725652</v>
+        <v>1.018877062597046</v>
       </c>
       <c r="K21">
-        <v>1.038417000662303</v>
+        <v>1.054268917320466</v>
       </c>
       <c r="L21">
-        <v>0.9580125232879443</v>
+        <v>1.017930239472526</v>
       </c>
       <c r="M21">
-        <v>1.020152572498501</v>
+        <v>1.055179117315733</v>
       </c>
       <c r="N21">
-        <v>0.9889242439927307</v>
+        <v>1.010282756670746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9161808570927021</v>
+        <v>1.011007901071026</v>
       </c>
       <c r="D22">
-        <v>1.019695874210673</v>
+        <v>1.05012780461182</v>
       </c>
       <c r="E22">
-        <v>0.936088861652525</v>
+        <v>1.01332009072181</v>
       </c>
       <c r="F22">
-        <v>0.9999213849615614</v>
+        <v>1.050842217266792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048568643232101</v>
+        <v>1.042341872528793</v>
       </c>
       <c r="J22">
-        <v>0.9510979019200728</v>
+        <v>1.0180303178821</v>
       </c>
       <c r="K22">
-        <v>1.034886995589883</v>
+        <v>1.053783136540591</v>
       </c>
       <c r="L22">
-        <v>0.9530424209065331</v>
+        <v>1.017119046189612</v>
       </c>
       <c r="M22">
-        <v>1.015494399392097</v>
+        <v>1.054494871853689</v>
       </c>
       <c r="N22">
-        <v>0.9871269532059219</v>
+        <v>1.009997373901181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9199729973660761</v>
+        <v>1.011594796168842</v>
       </c>
       <c r="D23">
-        <v>1.021927933162622</v>
+        <v>1.050454192664077</v>
       </c>
       <c r="E23">
-        <v>0.9391614375239097</v>
+        <v>1.013822410373763</v>
       </c>
       <c r="F23">
-        <v>1.002779448736359</v>
+        <v>1.051274206291987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049623988561857</v>
+        <v>1.042449291596534</v>
       </c>
       <c r="J23">
-        <v>0.953916712135119</v>
+        <v>1.018479476443726</v>
       </c>
       <c r="K23">
-        <v>1.036774107094264</v>
+        <v>1.054041091648991</v>
       </c>
       <c r="L23">
-        <v>0.9556993121701332</v>
+        <v>1.017549312751778</v>
       </c>
       <c r="M23">
-        <v>1.017984504565632</v>
+        <v>1.054858094776435</v>
       </c>
       <c r="N23">
-        <v>0.9880878784323044</v>
+        <v>1.010148773665564</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9342203941045445</v>
+        <v>1.013899563979791</v>
       </c>
       <c r="D24">
-        <v>1.030352459830267</v>
+        <v>1.051730969226191</v>
       </c>
       <c r="E24">
-        <v>0.9507406344745586</v>
+        <v>1.015795892364253</v>
       </c>
       <c r="F24">
-        <v>1.01355380480264</v>
+        <v>1.052965289908325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053567121258827</v>
+        <v>1.042864471367545</v>
       </c>
       <c r="J24">
-        <v>0.9645088470013123</v>
+        <v>1.020241541389463</v>
       </c>
       <c r="K24">
-        <v>1.043866724483322</v>
+        <v>1.05504703748753</v>
       </c>
       <c r="L24">
-        <v>0.9656917850662997</v>
+        <v>1.0192380075038</v>
       </c>
       <c r="M24">
-        <v>1.027347009033755</v>
+        <v>1.056277196632529</v>
       </c>
       <c r="N24">
-        <v>0.9916987837596827</v>
+        <v>1.010742331778228</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9495436427730337</v>
+        <v>1.01656255652206</v>
       </c>
       <c r="D25">
-        <v>1.039460427641179</v>
+        <v>1.053195740202022</v>
       </c>
       <c r="E25">
-        <v>0.9632551503350364</v>
+        <v>1.018077817752377</v>
       </c>
       <c r="F25">
-        <v>1.025184681326663</v>
+        <v>1.054907954339736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057748654911253</v>
+        <v>1.043330315588549</v>
       </c>
       <c r="J25">
-        <v>0.9758971286312725</v>
+        <v>1.022273718352478</v>
       </c>
       <c r="K25">
-        <v>1.051475567425595</v>
+        <v>1.056194584778136</v>
       </c>
       <c r="L25">
-        <v>0.9764519875302937</v>
+        <v>1.021187104627113</v>
       </c>
       <c r="M25">
-        <v>1.037404224205638</v>
+        <v>1.057901619248833</v>
       </c>
       <c r="N25">
-        <v>0.9955801973147016</v>
+        <v>1.01142606925239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018677635229236</v>
+        <v>0.9609539015921246</v>
       </c>
       <c r="D2">
-        <v>1.054350528882185</v>
+        <v>1.046255315378012</v>
       </c>
       <c r="E2">
-        <v>1.019891571743906</v>
+        <v>0.9726142361204828</v>
       </c>
       <c r="F2">
-        <v>1.056441662908779</v>
+        <v>1.033854876342034</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04368904623742</v>
+        <v>1.060802499632999</v>
       </c>
       <c r="J2">
-        <v>1.023884710911551</v>
+        <v>0.9843686734586095</v>
       </c>
       <c r="K2">
-        <v>1.057093980672994</v>
+        <v>1.057105766091441</v>
       </c>
       <c r="L2">
-        <v>1.022733475487947</v>
+        <v>0.9844687587631384</v>
       </c>
       <c r="M2">
-        <v>1.059179364208686</v>
+        <v>1.044861877870788</v>
       </c>
       <c r="N2">
-        <v>1.011967439458822</v>
+        <v>0.9984659088965796</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020208398964408</v>
+        <v>0.9688342901185868</v>
       </c>
       <c r="D3">
-        <v>1.055181212700848</v>
+        <v>1.050945206010714</v>
       </c>
       <c r="E3">
-        <v>1.02120501077031</v>
+        <v>0.9790979472065757</v>
       </c>
       <c r="F3">
-        <v>1.057546213006259</v>
+        <v>1.039838133686808</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043942093781302</v>
+        <v>1.062871735439481</v>
       </c>
       <c r="J3">
-        <v>1.025048857346466</v>
+        <v>0.9902121901266996</v>
       </c>
       <c r="K3">
-        <v>1.057737845677014</v>
+        <v>1.060965229573336</v>
       </c>
       <c r="L3">
-        <v>1.023851643664048</v>
+        <v>0.9900054491546336</v>
       </c>
       <c r="M3">
-        <v>1.060096813535946</v>
+        <v>1.04998544230386</v>
       </c>
       <c r="N3">
-        <v>1.012358264058563</v>
+        <v>1.000455115864613</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021196670310999</v>
+        <v>0.9737647561860596</v>
       </c>
       <c r="D4">
-        <v>1.055715125493566</v>
+        <v>1.053875175361987</v>
       </c>
       <c r="E4">
-        <v>1.022053318904646</v>
+        <v>0.9831628538661934</v>
       </c>
       <c r="F4">
-        <v>1.05825676394047</v>
+        <v>1.043576538427008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044102402216575</v>
+        <v>1.064146384905589</v>
       </c>
       <c r="J4">
-        <v>1.025799604177475</v>
+        <v>0.9938642334478506</v>
       </c>
       <c r="K4">
-        <v>1.058150234197895</v>
+        <v>1.063364111298947</v>
       </c>
       <c r="L4">
-        <v>1.024573072636481</v>
+        <v>0.9934688278153736</v>
       </c>
       <c r="M4">
-        <v>1.060685716629813</v>
+        <v>1.053176010789494</v>
       </c>
       <c r="N4">
-        <v>1.012610124411189</v>
+        <v>1.001697603287003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021611613527143</v>
+        <v>0.9757995997929024</v>
       </c>
       <c r="D5">
-        <v>1.055938723062466</v>
+        <v>1.05508295529418</v>
       </c>
       <c r="E5">
-        <v>1.022409577277587</v>
+        <v>0.9848423392194106</v>
       </c>
       <c r="F5">
-        <v>1.058554485113095</v>
+        <v>1.045117788670288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044168975126693</v>
+        <v>1.06466742688488</v>
       </c>
       <c r="J5">
-        <v>1.026114618021545</v>
+        <v>0.9953704041766958</v>
       </c>
       <c r="K5">
-        <v>1.058322589645549</v>
+        <v>1.064350010552888</v>
       </c>
       <c r="L5">
-        <v>1.024875864519336</v>
+        <v>0.9948979222348027</v>
       </c>
       <c r="M5">
-        <v>1.060932157466119</v>
+        <v>1.054488817067872</v>
       </c>
       <c r="N5">
-        <v>1.012715762238394</v>
+        <v>1.002209841324708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021681253731393</v>
+        <v>0.9761391022293332</v>
       </c>
       <c r="D6">
-        <v>1.055976215720745</v>
+        <v>1.055284370576155</v>
       </c>
       <c r="E6">
-        <v>1.022469373098571</v>
+        <v>0.9851226583986755</v>
       </c>
       <c r="F6">
-        <v>1.058604415581268</v>
+        <v>1.045374831448011</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044180104893613</v>
+        <v>1.064754058647496</v>
       </c>
       <c r="J6">
-        <v>1.026167475226575</v>
+        <v>0.9956216357308958</v>
       </c>
       <c r="K6">
-        <v>1.058351469532761</v>
+        <v>1.064514249500445</v>
       </c>
       <c r="L6">
-        <v>1.024926675646599</v>
+        <v>0.9951363401806498</v>
       </c>
       <c r="M6">
-        <v>1.060973469541542</v>
+        <v>1.054707608270609</v>
       </c>
       <c r="N6">
-        <v>1.012733485032532</v>
+        <v>1.002295271970866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021202216858586</v>
+        <v>0.9737920918066348</v>
       </c>
       <c r="D7">
-        <v>1.055718116590602</v>
+        <v>1.053891406629126</v>
       </c>
       <c r="E7">
-        <v>1.022058080693682</v>
+        <v>0.983185408454302</v>
       </c>
       <c r="F7">
-        <v>1.058260746009314</v>
+        <v>1.043597250149176</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044103294991682</v>
+        <v>1.064153404612868</v>
       </c>
       <c r="J7">
-        <v>1.025803815758126</v>
+        <v>0.9938844713024668</v>
       </c>
       <c r="K7">
-        <v>1.058152541197755</v>
+        <v>1.063377372467587</v>
       </c>
       <c r="L7">
-        <v>1.024577120501429</v>
+        <v>0.9934880271339621</v>
       </c>
       <c r="M7">
-        <v>1.060689014037341</v>
+        <v>1.053193662894117</v>
       </c>
       <c r="N7">
-        <v>1.012611536906191</v>
+        <v>1.001704486799111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019195432275664</v>
+        <v>0.9636535951652945</v>
       </c>
       <c r="D8">
-        <v>1.054632007604759</v>
+        <v>1.047862650599079</v>
       </c>
       <c r="E8">
-        <v>1.020335784688701</v>
+        <v>0.974833616834652</v>
       </c>
       <c r="F8">
-        <v>1.056815815469327</v>
+        <v>1.035905467425096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043775275385672</v>
+        <v>1.061515477298278</v>
       </c>
       <c r="J8">
-        <v>1.024278668197809</v>
+        <v>0.9863713615493394</v>
       </c>
       <c r="K8">
-        <v>1.057312455560118</v>
+        <v>1.058431091589124</v>
       </c>
       <c r="L8">
-        <v>1.02311180425784</v>
+        <v>0.9863656299328267</v>
       </c>
       <c r="M8">
-        <v>1.059490405237387</v>
+        <v>1.04662008645328</v>
       </c>
       <c r="N8">
-        <v>1.012099734887991</v>
+        <v>0.9991477905849482</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015641693769673</v>
+        <v>0.9443721397670034</v>
       </c>
       <c r="D9">
-        <v>1.052690544564786</v>
+        <v>1.036382929385393</v>
       </c>
       <c r="E9">
-        <v>1.017288517935886</v>
+        <v>0.9590246012853175</v>
       </c>
       <c r="F9">
-        <v>1.054237603721856</v>
+        <v>1.02125626753401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04317096752418</v>
+        <v>1.056346212046989</v>
       </c>
       <c r="J9">
-        <v>1.021571464362425</v>
+        <v>0.9720546759502056</v>
       </c>
       <c r="K9">
-        <v>1.055799619961755</v>
+        <v>1.048912063919273</v>
       </c>
       <c r="L9">
-        <v>1.020513368018558</v>
+        <v>0.9728194053009744</v>
       </c>
       <c r="M9">
-        <v>1.057341813743756</v>
+        <v>1.034013639715689</v>
       </c>
       <c r="N9">
-        <v>1.011189893571253</v>
+        <v>0.9942707931154305</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013260172105644</v>
+        <v>0.9303657815866995</v>
       </c>
       <c r="D10">
-        <v>1.051377576428709</v>
+        <v>1.028067956438637</v>
       </c>
       <c r="E10">
-        <v>1.015248270099376</v>
+        <v>0.9476024542136781</v>
       </c>
       <c r="F10">
-        <v>1.052497023205555</v>
+        <v>1.010633914851683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042750376236787</v>
+        <v>1.052504458733598</v>
       </c>
       <c r="J10">
-        <v>1.019753000881598</v>
+        <v>0.9616431421571481</v>
       </c>
       <c r="K10">
-        <v>1.054769117685309</v>
+        <v>1.041948276641255</v>
       </c>
       <c r="L10">
-        <v>1.018769688371083</v>
+        <v>0.9629869107658072</v>
       </c>
       <c r="M10">
-        <v>1.055884697129749</v>
+        <v>1.024813788855455</v>
       </c>
       <c r="N10">
-        <v>1.010577828407062</v>
+        <v>0.9907218772348431</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012225884343118</v>
+        <v>0.9239735448662147</v>
       </c>
       <c r="D11">
-        <v>1.050804594875981</v>
+        <v>1.024287739555575</v>
       </c>
       <c r="E11">
-        <v>1.014362651712469</v>
+        <v>0.9424071824169852</v>
       </c>
       <c r="F11">
-        <v>1.051738116279871</v>
+        <v>1.0057994206276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042564041977656</v>
+        <v>1.050735083187374</v>
       </c>
       <c r="J11">
-        <v>1.018962251493866</v>
+        <v>0.9568907645969358</v>
       </c>
       <c r="K11">
-        <v>1.054317669259246</v>
+        <v>1.03876571326286</v>
       </c>
       <c r="L11">
-        <v>1.018011866647532</v>
+        <v>0.9585035704333211</v>
       </c>
       <c r="M11">
-        <v>1.055247840066288</v>
+        <v>1.020612790876454</v>
       </c>
       <c r="N11">
-        <v>1.010311460493468</v>
+        <v>0.9891017542592869</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01184123072662</v>
+        <v>0.9215445066330756</v>
       </c>
       <c r="D12">
-        <v>1.05059109175183</v>
+        <v>1.022854324432152</v>
       </c>
       <c r="E12">
-        <v>1.014033358008769</v>
+        <v>0.9404359171610857</v>
       </c>
       <c r="F12">
-        <v>1.051455434767651</v>
+        <v>1.003965199313993</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042494194692604</v>
+        <v>1.050060753239657</v>
       </c>
       <c r="J12">
-        <v>1.018668021460643</v>
+        <v>0.9550849580572048</v>
       </c>
       <c r="K12">
-        <v>1.054149192441886</v>
+        <v>1.037556390203055</v>
       </c>
       <c r="L12">
-        <v>1.01772994999279</v>
+        <v>0.9568007318146184</v>
       </c>
       <c r="M12">
-        <v>1.055010389914801</v>
+        <v>1.019016824615504</v>
       </c>
       <c r="N12">
-        <v>1.010212315558985</v>
+        <v>0.9884861395414357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011923761825652</v>
+        <v>0.9220681155273447</v>
       </c>
       <c r="D13">
-        <v>1.050636919360129</v>
+        <v>1.023163161394355</v>
       </c>
       <c r="E13">
-        <v>1.014104007949475</v>
+        <v>0.940860710374804</v>
       </c>
       <c r="F13">
-        <v>1.05151610672585</v>
+        <v>1.004360443088083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042509205900958</v>
+        <v>1.050206194455372</v>
       </c>
       <c r="J13">
-        <v>1.018731158037372</v>
+        <v>0.9554742142344015</v>
       </c>
       <c r="K13">
-        <v>1.054185367024376</v>
+        <v>1.037817060170973</v>
       </c>
       <c r="L13">
-        <v>1.017790441561742</v>
+        <v>0.9571677585848679</v>
       </c>
       <c r="M13">
-        <v>1.055061364262357</v>
+        <v>1.019360823101065</v>
       </c>
       <c r="N13">
-        <v>1.010233591761593</v>
+        <v>0.9886188397878202</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01219409847243</v>
+        <v>0.9237739100573505</v>
       </c>
       <c r="D14">
-        <v>1.050786960370259</v>
+        <v>1.024169864423496</v>
       </c>
       <c r="E14">
-        <v>1.014335439087629</v>
+        <v>0.9422451093958923</v>
       </c>
       <c r="F14">
-        <v>1.051714765875813</v>
+        <v>1.005648608193695</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04255828132848</v>
+        <v>1.050679699340391</v>
       </c>
       <c r="J14">
-        <v>1.018937940810072</v>
+        <v>0.9567423481478758</v>
       </c>
       <c r="K14">
-        <v>1.054303759017957</v>
+        <v>1.038666317588828</v>
       </c>
       <c r="L14">
-        <v>1.017988572103469</v>
+        <v>0.9583636016107958</v>
       </c>
       <c r="M14">
-        <v>1.05522823060657</v>
+        <v>1.020481610630881</v>
       </c>
       <c r="N14">
-        <v>1.010303269320552</v>
+        <v>0.9890511576717519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012360598770793</v>
+        <v>0.9248174821588686</v>
       </c>
       <c r="D15">
-        <v>1.050879316428965</v>
+        <v>1.024786175161347</v>
       </c>
       <c r="E15">
-        <v>1.014477986724946</v>
+        <v>0.9430924514275573</v>
       </c>
       <c r="F15">
-        <v>1.051837061546009</v>
+        <v>1.006437088181277</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042588434214362</v>
+        <v>1.050969135997011</v>
       </c>
       <c r="J15">
-        <v>1.019065278604144</v>
+        <v>0.9575181859569595</v>
       </c>
       <c r="K15">
-        <v>1.054376599639031</v>
+        <v>1.039185905363592</v>
       </c>
       <c r="L15">
-        <v>1.018110589932473</v>
+        <v>0.9590953101483312</v>
       </c>
       <c r="M15">
-        <v>1.05533092399601</v>
+        <v>1.021167364183547</v>
       </c>
       <c r="N15">
-        <v>1.010346172844836</v>
+        <v>0.9893156483508121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013328748661838</v>
+        <v>0.9307826661413373</v>
       </c>
       <c r="D16">
-        <v>1.051415509194248</v>
+        <v>1.028314862965501</v>
       </c>
       <c r="E16">
-        <v>1.015306999077334</v>
+        <v>0.947941661583223</v>
       </c>
       <c r="F16">
-        <v>1.052547278884577</v>
+        <v>1.01094955318104</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04276265371895</v>
+        <v>1.052619557174485</v>
       </c>
       <c r="J16">
-        <v>1.019805409181646</v>
+        <v>0.9619530802064615</v>
       </c>
       <c r="K16">
-        <v>1.054798968350857</v>
+        <v>1.042155801036682</v>
       </c>
       <c r="L16">
-        <v>1.018819922918669</v>
+        <v>0.9632794027498028</v>
       </c>
       <c r="M16">
-        <v>1.055926838231541</v>
+        <v>1.025087779341671</v>
       </c>
       <c r="N16">
-        <v>1.01059547790821</v>
+        <v>0.9908275357163955</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013935212746376</v>
+        <v>0.9344332002980678</v>
       </c>
       <c r="D17">
-        <v>1.051750653538939</v>
+        <v>1.030478679848365</v>
       </c>
       <c r="E17">
-        <v>1.015826427691681</v>
+        <v>0.9509140043709414</v>
       </c>
       <c r="F17">
-        <v>1.052991377459829</v>
+        <v>1.013715095153644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042870807643546</v>
+        <v>1.053625682277569</v>
       </c>
       <c r="J17">
-        <v>1.020268772781056</v>
+        <v>0.9646670523892277</v>
       </c>
       <c r="K17">
-        <v>1.055062506097057</v>
+        <v>1.043972609149387</v>
       </c>
       <c r="L17">
-        <v>1.019264114528129</v>
+        <v>0.9658411429736077</v>
       </c>
       <c r="M17">
-        <v>1.056299052644987</v>
+        <v>1.027486847836809</v>
       </c>
       <c r="N17">
-        <v>1.0107514997847</v>
+        <v>0.9917527139147123</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014288657247293</v>
+        <v>0.9365313194017861</v>
       </c>
       <c r="D18">
-        <v>1.05194570764312</v>
+        <v>1.031723619989645</v>
       </c>
       <c r="E18">
-        <v>1.01612919208351</v>
+        <v>0.9526239605082062</v>
       </c>
       <c r="F18">
-        <v>1.053249908934067</v>
+        <v>1.015305756940032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042933485347768</v>
+        <v>1.054202412280958</v>
       </c>
       <c r="J18">
-        <v>1.020538722974653</v>
+        <v>0.9662268046153645</v>
       </c>
       <c r="K18">
-        <v>1.05521571835705</v>
+        <v>1.04501634365365</v>
       </c>
       <c r="L18">
-        <v>1.019522934643296</v>
+        <v>0.9673138460215623</v>
       </c>
       <c r="M18">
-        <v>1.056515588509914</v>
+        <v>1.028865421536301</v>
       </c>
       <c r="N18">
-        <v>1.010842375636863</v>
+        <v>0.9922844032237115</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014409122867677</v>
+        <v>0.9372415890052419</v>
       </c>
       <c r="D19">
-        <v>1.052012143204401</v>
+        <v>1.032145262591697</v>
       </c>
       <c r="E19">
-        <v>1.016232391630266</v>
+        <v>0.9532030939889521</v>
       </c>
       <c r="F19">
-        <v>1.053337976190734</v>
+        <v>1.015844415987899</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042954787882771</v>
+        <v>1.054397378567932</v>
       </c>
       <c r="J19">
-        <v>1.020630714654438</v>
+        <v>0.9667548028011432</v>
       </c>
       <c r="K19">
-        <v>1.055267874217567</v>
+        <v>1.045369577770121</v>
       </c>
       <c r="L19">
-        <v>1.019611140161651</v>
+        <v>0.9678124507625433</v>
       </c>
       <c r="M19">
-        <v>1.056589325002972</v>
+        <v>1.029332038454369</v>
       </c>
       <c r="N19">
-        <v>1.010873340144609</v>
+        <v>0.9924643830599597</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013870175561524</v>
+        <v>0.9340447941459695</v>
       </c>
       <c r="D20">
-        <v>1.051714740209708</v>
+        <v>1.030248314916825</v>
       </c>
       <c r="E20">
-        <v>1.015770719650955</v>
+        <v>0.950597585091229</v>
       </c>
       <c r="F20">
-        <v>1.052943782021644</v>
+        <v>1.013420720464974</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042859245820771</v>
+        <v>1.053518790067264</v>
       </c>
       <c r="J20">
-        <v>1.020219091613278</v>
+        <v>0.9643783011432642</v>
       </c>
       <c r="K20">
-        <v>1.055034283227118</v>
+        <v>1.043779349571057</v>
       </c>
       <c r="L20">
-        <v>1.019216484886617</v>
+        <v>0.9655685423523462</v>
       </c>
       <c r="M20">
-        <v>1.056259176601838</v>
+        <v>1.027231617464846</v>
       </c>
       <c r="N20">
-        <v>1.010734773484078</v>
+        <v>0.9916542822510117</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012114504219626</v>
+        <v>0.9232731538979756</v>
       </c>
       <c r="D21">
-        <v>1.050742795611229</v>
+        <v>1.023874243360915</v>
       </c>
       <c r="E21">
-        <v>1.01426729771834</v>
+        <v>0.941838619845739</v>
       </c>
       <c r="F21">
-        <v>1.051656287546434</v>
+        <v>1.005270365573512</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042543847361339</v>
+        <v>1.050540746618584</v>
       </c>
       <c r="J21">
-        <v>1.018877062597046</v>
+        <v>0.9563700682725647</v>
       </c>
       <c r="K21">
-        <v>1.054268917320466</v>
+        <v>1.038417000662304</v>
       </c>
       <c r="L21">
-        <v>1.017930239472526</v>
+        <v>0.9580125232879437</v>
       </c>
       <c r="M21">
-        <v>1.055179117315733</v>
+        <v>1.020152572498502</v>
       </c>
       <c r="N21">
-        <v>1.010282756670746</v>
+        <v>0.9889242439927305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011007901071026</v>
+        <v>0.9161808570927031</v>
       </c>
       <c r="D22">
-        <v>1.05012780461182</v>
+        <v>1.019695874210672</v>
       </c>
       <c r="E22">
-        <v>1.01332009072181</v>
+        <v>0.9360888616525257</v>
       </c>
       <c r="F22">
-        <v>1.050842217266792</v>
+        <v>0.999921384961561</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042341872528793</v>
+        <v>1.048568643232101</v>
       </c>
       <c r="J22">
-        <v>1.0180303178821</v>
+        <v>0.9510979019200737</v>
       </c>
       <c r="K22">
-        <v>1.053783136540591</v>
+        <v>1.034886995589883</v>
       </c>
       <c r="L22">
-        <v>1.017119046189612</v>
+        <v>0.9530424209065337</v>
       </c>
       <c r="M22">
-        <v>1.054494871853689</v>
+        <v>1.015494399392097</v>
       </c>
       <c r="N22">
-        <v>1.009997373901181</v>
+        <v>0.9871269532059223</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011594796168842</v>
+        <v>0.9199729973660761</v>
       </c>
       <c r="D23">
-        <v>1.050454192664077</v>
+        <v>1.021927933162622</v>
       </c>
       <c r="E23">
-        <v>1.013822410373763</v>
+        <v>0.9391614375239098</v>
       </c>
       <c r="F23">
-        <v>1.051274206291987</v>
+        <v>1.002779448736359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042449291596534</v>
+        <v>1.049623988561856</v>
       </c>
       <c r="J23">
-        <v>1.018479476443726</v>
+        <v>0.953916712135119</v>
       </c>
       <c r="K23">
-        <v>1.054041091648991</v>
+        <v>1.036774107094264</v>
       </c>
       <c r="L23">
-        <v>1.017549312751778</v>
+        <v>0.9556993121701336</v>
       </c>
       <c r="M23">
-        <v>1.054858094776435</v>
+        <v>1.017984504565632</v>
       </c>
       <c r="N23">
-        <v>1.010148773665564</v>
+        <v>0.9880878784323042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013899563979791</v>
+        <v>0.9342203941045434</v>
       </c>
       <c r="D24">
-        <v>1.051730969226191</v>
+        <v>1.030352459830267</v>
       </c>
       <c r="E24">
-        <v>1.015795892364253</v>
+        <v>0.9507406344745571</v>
       </c>
       <c r="F24">
-        <v>1.052965289908325</v>
+        <v>1.01355380480264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042864471367545</v>
+        <v>1.053567121258827</v>
       </c>
       <c r="J24">
-        <v>1.020241541389463</v>
+        <v>0.9645088470013113</v>
       </c>
       <c r="K24">
-        <v>1.05504703748753</v>
+        <v>1.043866724483322</v>
       </c>
       <c r="L24">
-        <v>1.0192380075038</v>
+        <v>0.9656917850662982</v>
       </c>
       <c r="M24">
-        <v>1.056277196632529</v>
+        <v>1.027347009033755</v>
       </c>
       <c r="N24">
-        <v>1.010742331778228</v>
+        <v>0.9916987837596825</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01656255652206</v>
+        <v>0.9495436427730343</v>
       </c>
       <c r="D25">
-        <v>1.053195740202022</v>
+        <v>1.039460427641179</v>
       </c>
       <c r="E25">
-        <v>1.018077817752377</v>
+        <v>0.9632551503350372</v>
       </c>
       <c r="F25">
-        <v>1.054907954339736</v>
+        <v>1.025184681326663</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043330315588549</v>
+        <v>1.057748654911253</v>
       </c>
       <c r="J25">
-        <v>1.022273718352478</v>
+        <v>0.9758971286312732</v>
       </c>
       <c r="K25">
-        <v>1.056194584778136</v>
+        <v>1.051475567425595</v>
       </c>
       <c r="L25">
-        <v>1.021187104627113</v>
+        <v>0.9764519875302944</v>
       </c>
       <c r="M25">
-        <v>1.057901619248833</v>
+        <v>1.037404224205638</v>
       </c>
       <c r="N25">
-        <v>1.01142606925239</v>
+        <v>0.9955801973147019</v>
       </c>
     </row>
   </sheetData>
